--- a/牛客笔试题/构造方法.xlsx
+++ b/牛客笔试题/构造方法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12140" windowHeight="4320"/>
+    <workbookView windowWidth="18840" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -33,6 +33,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -40,12 +47,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -54,21 +161,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -83,98 +175,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,19 +185,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,163 +299,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,11 +403,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,8 +421,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,6 +442,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -450,32 +476,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -721,8 +721,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="196850"/>
-          <a:ext cx="3816350" cy="3987800"/>
+          <a:off x="38100" y="190500"/>
+          <a:ext cx="4151630" cy="3848100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,8 +763,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4051300" y="501650"/>
-          <a:ext cx="5511800" cy="1365250"/>
+          <a:off x="4407535" y="488950"/>
+          <a:ext cx="6014720" cy="1314450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -805,8 +805,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="153670" y="5226050"/>
-          <a:ext cx="7303135" cy="3670300"/>
+          <a:off x="153670" y="5041900"/>
+          <a:ext cx="7973695" cy="3536950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -847,8 +847,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83820" y="9671050"/>
-          <a:ext cx="4311650" cy="3670300"/>
+          <a:off x="83820" y="9328150"/>
+          <a:ext cx="4709795" cy="3536950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -889,8 +889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4775200" y="9848850"/>
-          <a:ext cx="8134985" cy="476250"/>
+          <a:off x="5194300" y="9499600"/>
+          <a:ext cx="8889365" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,8 +931,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="14484350"/>
-          <a:ext cx="4965700" cy="2978150"/>
+          <a:off x="635" y="13970000"/>
+          <a:ext cx="5405755" cy="2870200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -973,8 +973,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5124450" y="14630400"/>
-          <a:ext cx="2914650" cy="2927350"/>
+          <a:off x="5585460" y="14109700"/>
+          <a:ext cx="3187065" cy="2825750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1015,8 +1015,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="64770" y="17900650"/>
-          <a:ext cx="3638550" cy="1193800"/>
+          <a:off x="64770" y="17265650"/>
+          <a:ext cx="3973830" cy="1149350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1057,8 +1057,176 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3759200" y="18110200"/>
-          <a:ext cx="3460750" cy="838200"/>
+          <a:off x="4094480" y="17468850"/>
+          <a:ext cx="3775075" cy="806450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>134620</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>113665</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="134620" y="19202400"/>
+          <a:ext cx="6467475" cy="6696075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6978015" y="24660225"/>
+          <a:ext cx="8153400" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="308610" y="27117675"/>
+          <a:ext cx="8743950" cy="4076700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="337185" y="31356300"/>
+          <a:ext cx="4486275" cy="7524750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1363,13 +1531,13 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="T105" sqref="T105"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="E187" sqref="D187:E187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.27272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="3.275" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="3.27272727272727" customWidth="1"/>
+    <col min="1" max="16384" width="3.275" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1388,7 +1556,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1405,7 +1573,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/牛客笔试题/构造方法.xlsx
+++ b/牛客笔试题/构造方法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="10275"/>
+    <workbookView windowWidth="19080" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -33,6 +33,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -40,14 +77,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,8 +144,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,66 +168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -167,14 +175,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,30 +376,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -421,8 +397,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,7 +461,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,21 +476,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,145 +484,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1227,6 +1227,90 @@
         <a:xfrm>
           <a:off x="337185" y="31356300"/>
           <a:ext cx="4486275" cy="7524750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40005</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>211455</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="289560" y="39824025"/>
+          <a:ext cx="5162550" cy="6486525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6307455" y="40224075"/>
+          <a:ext cx="8515350" cy="6543675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1531,8 +1615,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E187" sqref="D187:E187"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="AA253" sqref="AA253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.275" defaultRowHeight="13.5"/>
